--- a/output/DSCP601_output.xlsx
+++ b/output/DSCP601_output.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="69">
   <si>
     <t>Staff Report</t>
   </si>
@@ -69,6 +69,15 @@
     <t>&lt;----Type Your Name</t>
   </si>
   <si>
+    <t>Course Code:</t>
+  </si>
+  <si>
+    <t>DSPC601</t>
+  </si>
+  <si>
+    <t>Max marks</t>
+  </si>
+  <si>
     <t>Attribute</t>
   </si>
   <si>
@@ -84,16 +93,16 @@
     <t>Total Absent</t>
   </si>
   <si>
-    <t>Average Marks &amp; %</t>
-  </si>
-  <si>
-    <t>Less Than 15</t>
-  </si>
-  <si>
-    <t>Between 15-30</t>
-  </si>
-  <si>
-    <t>More than 30</t>
+    <t>Average Marks</t>
+  </si>
+  <si>
+    <t>Less Than 40%</t>
+  </si>
+  <si>
+    <t>Between 40 % - 75 %</t>
+  </si>
+  <si>
+    <t>More than 75%</t>
   </si>
   <si>
     <t>S.No.</t>
@@ -129,13 +138,16 @@
     <t>Aravind S</t>
   </si>
   <si>
+    <t>Gowtham R</t>
+  </si>
+  <si>
+    <t>Brijesh A</t>
+  </si>
+  <si>
     <t>Adhithi K</t>
   </si>
   <si>
-    <t>Gowtham R</t>
-  </si>
-  <si>
-    <t>Brijesh A</t>
+    <t>Nithya Sri R</t>
   </si>
   <si>
     <t>Bhuvanadurai M</t>
@@ -144,30 +156,27 @@
     <t>Hitesh Kumar K A</t>
   </si>
   <si>
-    <t>Nithya Sri R</t>
-  </si>
-  <si>
     <t>Surya Prakash R</t>
   </si>
   <si>
+    <t>Kailashwaran R</t>
+  </si>
+  <si>
+    <t>Dhanush B</t>
+  </si>
+  <si>
     <t>Krishnapriya K</t>
   </si>
   <si>
-    <t>Kailashwaran R</t>
-  </si>
-  <si>
-    <t>Dhanush B</t>
-  </si>
-  <si>
     <t>Deepakragavan J</t>
   </si>
   <si>
+    <t>Guruprasath V</t>
+  </si>
+  <si>
     <t>Kalaivani S</t>
   </si>
   <si>
-    <t>Guruprasath V</t>
-  </si>
-  <si>
     <t>Mohamed Tharif B</t>
   </si>
   <si>
@@ -184,6 +193,36 @@
   </si>
   <si>
     <t>Preethiga S</t>
+  </si>
+  <si>
+    <t>Rajadurai P</t>
+  </si>
+  <si>
+    <t>Sikanthkumar C</t>
+  </si>
+  <si>
+    <t>Sivaa Ganesh S</t>
+  </si>
+  <si>
+    <t>Varsha V</t>
+  </si>
+  <si>
+    <t>Ashik Jenly V L</t>
+  </si>
+  <si>
+    <t>Jananika B</t>
+  </si>
+  <si>
+    <t>Naveena A</t>
+  </si>
+  <si>
+    <t>Jaikrishnan V</t>
+  </si>
+  <si>
+    <t>Nilavanan S.A</t>
+  </si>
+  <si>
+    <t>Ajay S</t>
   </si>
 </sst>
 </file>
@@ -672,17 +711,35 @@
         <v>16</v>
       </c>
     </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="2">
+        <v>40</v>
+      </c>
+    </row>
     <row r="13" spans="1:6">
       <c r="A13" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B14" s="2">
         <v>51</v>
@@ -690,7 +747,7 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B15" s="2">
         <v>51</v>
@@ -698,7 +755,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B16" s="2">
         <v>0</v>
@@ -706,15 +763,15 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B17" s="2">
-        <v>26.84313725490196</v>
+        <v>26.84</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B18" s="2">
         <v>6</v>
@@ -722,7 +779,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B19" s="2">
         <v>22</v>
@@ -730,7 +787,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B20" s="2">
         <v>23</v>
@@ -754,16 +811,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -774,7 +831,7 @@
         <v>2236150002</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D2">
         <v>4</v>
@@ -788,7 +845,7 @@
         <v>2136110033</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D3">
         <v>7</v>
@@ -802,7 +859,7 @@
         <v>2236150003</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D4">
         <v>9</v>
@@ -816,7 +873,7 @@
         <v>2136110002</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D5">
         <v>10</v>
@@ -830,7 +887,7 @@
         <v>2136110029</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D6">
         <v>13</v>
@@ -844,7 +901,7 @@
         <v>2136110035</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D7">
         <v>13</v>
@@ -857,7 +914,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -865,16 +922,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -885,7 +942,7 @@
         <v>2136110001</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D2">
         <v>40</v>
@@ -893,13 +950,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="B3">
-        <v>2136110025</v>
+        <v>2136110047</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D3">
         <v>39</v>
@@ -907,13 +964,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="B4">
-        <v>2136110047</v>
+        <v>2136110030</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D4">
         <v>39</v>
@@ -921,13 +978,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B5">
-        <v>2136110030</v>
+        <v>2136110025</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D5">
         <v>39</v>
@@ -935,13 +992,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="B6">
-        <v>2136110048</v>
+        <v>2136110016</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D6">
         <v>38</v>
@@ -949,13 +1006,13 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="B7">
-        <v>2136110031</v>
+        <v>2136110048</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D7">
         <v>38</v>
@@ -963,13 +1020,13 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B8">
-        <v>2136110016</v>
+        <v>2136110031</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D8">
         <v>38</v>
@@ -983,7 +1040,7 @@
         <v>2136110023</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D9">
         <v>37</v>
@@ -991,13 +1048,13 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="B10">
-        <v>2136110010</v>
+        <v>2136110049</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D10">
         <v>35</v>
@@ -1005,13 +1062,13 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
+        <v>49</v>
+      </c>
+      <c r="B11">
+        <v>2236150001</v>
+      </c>
+      <c r="C11" t="s">
         <v>48</v>
-      </c>
-      <c r="B11">
-        <v>2136110049</v>
-      </c>
-      <c r="C11" t="s">
-        <v>45</v>
       </c>
       <c r="D11">
         <v>35</v>
@@ -1019,13 +1076,13 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>2136110010</v>
+      </c>
+      <c r="C12" t="s">
         <v>49</v>
-      </c>
-      <c r="B12">
-        <v>2236150001</v>
-      </c>
-      <c r="C12" t="s">
-        <v>46</v>
       </c>
       <c r="D12">
         <v>35</v>
@@ -1039,7 +1096,7 @@
         <v>2136110004</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D13">
         <v>33</v>
@@ -1047,13 +1104,13 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B14">
-        <v>2136110009</v>
+        <v>2136110007</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D14">
         <v>33</v>
@@ -1061,13 +1118,13 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B15">
-        <v>2136110007</v>
+        <v>2136110009</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D15">
         <v>33</v>
@@ -1081,7 +1138,7 @@
         <v>2136110037</v>
       </c>
       <c r="C16" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D16">
         <v>32</v>
@@ -1095,7 +1152,7 @@
         <v>2136110038</v>
       </c>
       <c r="C17" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D17">
         <v>32</v>
@@ -1109,7 +1166,7 @@
         <v>2136110041</v>
       </c>
       <c r="C18" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D18">
         <v>32</v>
@@ -1123,7 +1180,7 @@
         <v>2136110022</v>
       </c>
       <c r="C19" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D19">
         <v>31</v>
@@ -1137,7 +1194,7 @@
         <v>2136110034</v>
       </c>
       <c r="C20" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D20">
         <v>31</v>
@@ -1151,10 +1208,150 @@
         <v>2136110040</v>
       </c>
       <c r="C21" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D21">
         <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
+        <v>41</v>
+      </c>
+      <c r="B22">
+        <v>2136110042</v>
+      </c>
+      <c r="C22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <v>17</v>
+      </c>
+      <c r="B23">
+        <v>2136110018</v>
+      </c>
+      <c r="C23" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <v>18</v>
+      </c>
+      <c r="B24">
+        <v>2136110019</v>
+      </c>
+      <c r="C24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25">
+        <v>44</v>
+      </c>
+      <c r="B25">
+        <v>2136110045</v>
+      </c>
+      <c r="C25" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="B26">
+        <v>2136110003</v>
+      </c>
+      <c r="C26" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27">
+        <v>8</v>
+      </c>
+      <c r="B27">
+        <v>2136110008</v>
+      </c>
+      <c r="C27" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28">
+        <v>13</v>
+      </c>
+      <c r="B28">
+        <v>2136110013</v>
+      </c>
+      <c r="C28" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29">
+        <v>31</v>
+      </c>
+      <c r="B29">
+        <v>2136110032</v>
+      </c>
+      <c r="C29" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30">
+        <v>15</v>
+      </c>
+      <c r="B30">
+        <v>2136110015</v>
+      </c>
+      <c r="C30" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31">
+        <v>25</v>
+      </c>
+      <c r="B31">
+        <v>2136110026</v>
+      </c>
+      <c r="C31" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/output/DSCP601_output.xlsx
+++ b/output/DSCP601_output.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="59">
   <si>
     <t>Staff Report</t>
   </si>
@@ -99,7 +99,7 @@
     <t>Less Than 40%</t>
   </si>
   <si>
-    <t>Between 40 % - 75 %</t>
+    <t>Between 40% - 75%</t>
   </si>
   <si>
     <t>More than 75%</t>
@@ -138,45 +138,45 @@
     <t>Aravind S</t>
   </si>
   <si>
+    <t>Adhithi K</t>
+  </si>
+  <si>
     <t>Gowtham R</t>
   </si>
   <si>
     <t>Brijesh A</t>
   </si>
   <si>
-    <t>Adhithi K</t>
+    <t>Bhuvanadurai M</t>
+  </si>
+  <si>
+    <t>Hitesh Kumar K A</t>
   </si>
   <si>
     <t>Nithya Sri R</t>
   </si>
   <si>
-    <t>Bhuvanadurai M</t>
-  </si>
-  <si>
-    <t>Hitesh Kumar K A</t>
-  </si>
-  <si>
     <t>Surya Prakash R</t>
   </si>
   <si>
+    <t>Krishnapriya K</t>
+  </si>
+  <si>
     <t>Kailashwaran R</t>
   </si>
   <si>
     <t>Dhanush B</t>
   </si>
   <si>
-    <t>Krishnapriya K</t>
-  </si>
-  <si>
     <t>Deepakragavan J</t>
   </si>
   <si>
+    <t>Kalaivani S</t>
+  </si>
+  <si>
     <t>Guruprasath V</t>
   </si>
   <si>
-    <t>Kalaivani S</t>
-  </si>
-  <si>
     <t>Mohamed Tharif B</t>
   </si>
   <si>
@@ -193,36 +193,6 @@
   </si>
   <si>
     <t>Preethiga S</t>
-  </si>
-  <si>
-    <t>Rajadurai P</t>
-  </si>
-  <si>
-    <t>Sikanthkumar C</t>
-  </si>
-  <si>
-    <t>Sivaa Ganesh S</t>
-  </si>
-  <si>
-    <t>Varsha V</t>
-  </si>
-  <si>
-    <t>Ashik Jenly V L</t>
-  </si>
-  <si>
-    <t>Jananika B</t>
-  </si>
-  <si>
-    <t>Naveena A</t>
-  </si>
-  <si>
-    <t>Jaikrishnan V</t>
-  </si>
-  <si>
-    <t>Nilavanan S.A</t>
-  </si>
-  <si>
-    <t>Ajay S</t>
   </si>
 </sst>
 </file>
@@ -621,7 +591,7 @@
     <col min="1" max="3" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="35" customHeight="1">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -646,7 +616,7 @@
       </c>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:6" ht="35" customHeight="1">
+    <row r="4" spans="1:6">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
         <v>2</v>
@@ -914,7 +884,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -950,10 +920,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="B3">
-        <v>2136110047</v>
+        <v>2136110025</v>
       </c>
       <c r="C3" t="s">
         <v>40</v>
@@ -964,10 +934,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="B4">
-        <v>2136110030</v>
+        <v>2136110047</v>
       </c>
       <c r="C4" t="s">
         <v>41</v>
@@ -978,10 +948,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B5">
-        <v>2136110025</v>
+        <v>2136110030</v>
       </c>
       <c r="C5" t="s">
         <v>42</v>
@@ -992,10 +962,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="B6">
-        <v>2136110016</v>
+        <v>2136110048</v>
       </c>
       <c r="C6" t="s">
         <v>43</v>
@@ -1006,10 +976,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="B7">
-        <v>2136110048</v>
+        <v>2136110031</v>
       </c>
       <c r="C7" t="s">
         <v>44</v>
@@ -1020,10 +990,10 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>2136110031</v>
+        <v>2136110016</v>
       </c>
       <c r="C8" t="s">
         <v>45</v>
@@ -1048,10 +1018,10 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="B10">
-        <v>2136110049</v>
+        <v>2136110010</v>
       </c>
       <c r="C10" t="s">
         <v>47</v>
@@ -1062,10 +1032,10 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B11">
-        <v>2236150001</v>
+        <v>2136110049</v>
       </c>
       <c r="C11" t="s">
         <v>48</v>
@@ -1076,10 +1046,10 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="B12">
-        <v>2136110010</v>
+        <v>2236150001</v>
       </c>
       <c r="C12" t="s">
         <v>49</v>
@@ -1104,10 +1074,10 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B14">
-        <v>2136110007</v>
+        <v>2136110009</v>
       </c>
       <c r="C14" t="s">
         <v>51</v>
@@ -1118,10 +1088,10 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B15">
-        <v>2136110009</v>
+        <v>2136110007</v>
       </c>
       <c r="C15" t="s">
         <v>52</v>
@@ -1212,146 +1182,6 @@
       </c>
       <c r="D21">
         <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22">
-        <v>41</v>
-      </c>
-      <c r="B22">
-        <v>2136110042</v>
-      </c>
-      <c r="C22" t="s">
-        <v>59</v>
-      </c>
-      <c r="D22">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23">
-        <v>17</v>
-      </c>
-      <c r="B23">
-        <v>2136110018</v>
-      </c>
-      <c r="C23" t="s">
-        <v>60</v>
-      </c>
-      <c r="D23">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24">
-        <v>18</v>
-      </c>
-      <c r="B24">
-        <v>2136110019</v>
-      </c>
-      <c r="C24" t="s">
-        <v>61</v>
-      </c>
-      <c r="D24">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25">
-        <v>44</v>
-      </c>
-      <c r="B25">
-        <v>2136110045</v>
-      </c>
-      <c r="C25" t="s">
-        <v>62</v>
-      </c>
-      <c r="D25">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26">
-        <v>3</v>
-      </c>
-      <c r="B26">
-        <v>2136110003</v>
-      </c>
-      <c r="C26" t="s">
-        <v>63</v>
-      </c>
-      <c r="D26">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27">
-        <v>8</v>
-      </c>
-      <c r="B27">
-        <v>2136110008</v>
-      </c>
-      <c r="C27" t="s">
-        <v>64</v>
-      </c>
-      <c r="D27">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28">
-        <v>13</v>
-      </c>
-      <c r="B28">
-        <v>2136110013</v>
-      </c>
-      <c r="C28" t="s">
-        <v>65</v>
-      </c>
-      <c r="D28">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29">
-        <v>31</v>
-      </c>
-      <c r="B29">
-        <v>2136110032</v>
-      </c>
-      <c r="C29" t="s">
-        <v>66</v>
-      </c>
-      <c r="D29">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30">
-        <v>15</v>
-      </c>
-      <c r="B30">
-        <v>2136110015</v>
-      </c>
-      <c r="C30" t="s">
-        <v>67</v>
-      </c>
-      <c r="D30">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31">
-        <v>25</v>
-      </c>
-      <c r="B31">
-        <v>2136110026</v>
-      </c>
-      <c r="C31" t="s">
-        <v>68</v>
-      </c>
-      <c r="D31">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
